--- a/Class Demo Files/Excel Ch2b/PMT function.xlsx
+++ b/Class Demo Files/Excel Ch2b/PMT function.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\github\BUS 140\BUS-140\Class Demo Files\Excel Ch2b\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15180" windowHeight="8070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PMT Function" sheetId="1" r:id="rId1"/>
     <sheet name="Calculating Savings" sheetId="4" r:id="rId2"/>
     <sheet name="Loan Payment Table" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Calculation of monthly loan payment</t>
   </si>
@@ -34,9 +39,6 @@
   </si>
   <si>
     <t>Total number of payments</t>
-  </si>
-  <si>
-    <t>Amount due each month</t>
   </si>
   <si>
     <t>Loan Payment Table</t>
@@ -69,16 +71,27 @@
   </si>
   <si>
     <t>Total Payments</t>
+  </si>
+  <si>
+    <t>Amount due each payment</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>fortnight</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="5">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -133,11 +146,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -174,16 +188,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -232,7 +253,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,7 +288,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -476,68 +497,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor indexed="13"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7500</v>
+      </c>
+      <c r="C4" s="18">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.08</v>
+      </c>
+      <c r="C5" s="19">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="C7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B9" s="5">
+        <f>-PMT(B5/B6,B7,B4)</f>
+        <v>105.00216109362759</v>
+      </c>
+      <c r="C9" s="20">
+        <f>PMT(C5/C6,C7,-C4)</f>
+        <v>1336.4187163983634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -553,7 +602,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor indexed="13"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
@@ -572,7 +621,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -580,16 +629,16 @@
     </row>
     <row r="3" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -641,13 +690,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor indexed="13"/>
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -661,7 +710,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -699,23 +748,26 @@
     </row>
     <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D8" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>5</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13">
+        <f>-PMT($B$5/$B$6,A9*$B$6,$B$4)</f>
+        <v>405.52788576827362</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
     </row>
@@ -723,7 +775,10 @@
       <c r="A10" s="15">
         <v>5.5</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13">
+        <f t="shared" ref="B10:B21" si="0">-PMT($B$5/$B$6,A10*$B$6,$B$4)</f>
+        <v>375.56306964711058</v>
+      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -732,7 +787,10 @@
       <c r="A11" s="15">
         <v>6</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="13">
+        <f t="shared" si="0"/>
+        <v>350.66481223905583</v>
+      </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -741,7 +799,10 @@
       <c r="A12" s="15">
         <v>6.5</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13">
+        <f t="shared" si="0"/>
+        <v>329.66366473712446</v>
+      </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -750,7 +811,10 @@
       <c r="A13" s="15">
         <v>7</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="13">
+        <f t="shared" si="0"/>
+        <v>311.72428805339086</v>
+      </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -759,7 +823,10 @@
       <c r="A14" s="15">
         <v>7.5</v>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="13">
+        <f t="shared" si="0"/>
+        <v>296.23408316394546</v>
+      </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -768,7 +835,10 @@
       <c r="A15" s="15">
         <v>8</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13">
+        <f t="shared" si="0"/>
+        <v>282.7335850908961</v>
+      </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -777,7 +847,10 @@
       <c r="A16" s="15">
         <v>8.5</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="13">
+        <f t="shared" si="0"/>
+        <v>270.8714237291835</v>
+      </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -786,7 +859,10 @@
       <c r="A17" s="15">
         <v>9</v>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="13">
+        <f t="shared" si="0"/>
+        <v>260.37429774472423</v>
+      </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -795,7 +871,10 @@
       <c r="A18" s="15">
         <v>9.5</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="13">
+        <f t="shared" si="0"/>
+        <v>251.02643041183819</v>
+      </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -804,7 +883,10 @@
       <c r="A19" s="15">
         <v>10</v>
       </c>
-      <c r="B19" s="13"/>
+      <c r="B19" s="13">
+        <f t="shared" si="0"/>
+        <v>242.65518871071387</v>
+      </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -813,7 +895,10 @@
       <c r="A20" s="15">
         <v>15</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="13">
+        <f t="shared" si="0"/>
+        <v>191.13041686607028</v>
+      </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -822,7 +907,10 @@
       <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="13">
+        <f t="shared" si="0"/>
+        <v>167.28801379869256</v>
+      </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>

--- a/Class Demo Files/Excel Ch2b/PMT function.xlsx
+++ b/Class Demo Files/Excel Ch2b/PMT function.xlsx
@@ -86,12 +86,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -151,7 +152,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -182,15 +183,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -530,7 +534,7 @@
       <c r="B4" s="3">
         <v>7500</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="16">
         <v>500000</v>
       </c>
     </row>
@@ -541,7 +545,7 @@
       <c r="B5" s="4">
         <v>0.08</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="17">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
@@ -575,7 +579,7 @@
         <f>-PMT(B5/B6,B7,B4)</f>
         <v>105.00216109362759</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="18">
         <f>PMT(C5/C6,C7,-C4)</f>
         <v>1336.4187163983634</v>
       </c>
@@ -620,12 +624,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -696,7 +700,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -709,12 +713,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="14"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -768,7 +772,10 @@
         <f>-PMT($B$5/$B$6,A9*$B$6,$B$4)</f>
         <v>405.52788576827362</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="21">
+        <f>B9*$B$6*A9</f>
+        <v>24331.673146096418</v>
+      </c>
       <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -779,8 +786,11 @@
         <f t="shared" ref="B10:B21" si="0">-PMT($B$5/$B$6,A10*$B$6,$B$4)</f>
         <v>375.56306964711058</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="C10" s="21">
+        <f t="shared" ref="C10:C21" si="1">B10*$B$6*A10</f>
+        <v>24787.162596709299</v>
+      </c>
+      <c r="D10" s="13"/>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -791,8 +801,11 @@
         <f t="shared" si="0"/>
         <v>350.66481223905583</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="21">
+        <f t="shared" si="1"/>
+        <v>25247.866481212019</v>
+      </c>
+      <c r="D11" s="13"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -803,8 +816,11 @@
         <f t="shared" si="0"/>
         <v>329.66366473712446</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="21">
+        <f t="shared" si="1"/>
+        <v>25713.765849495707</v>
+      </c>
+      <c r="D12" s="13"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -815,8 +831,11 @@
         <f t="shared" si="0"/>
         <v>311.72428805339086</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="21">
+        <f t="shared" si="1"/>
+        <v>26184.840196484831</v>
+      </c>
+      <c r="D13" s="13"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -827,8 +846,11 @@
         <f t="shared" si="0"/>
         <v>296.23408316394546</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="C14" s="21">
+        <f t="shared" si="1"/>
+        <v>26661.067484755091</v>
+      </c>
+      <c r="D14" s="13"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -839,8 +861,11 @@
         <f t="shared" si="0"/>
         <v>282.7335850908961</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="21">
+        <f t="shared" si="1"/>
+        <v>27142.424168726026</v>
+      </c>
+      <c r="D15" s="13"/>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -851,8 +876,11 @@
         <f t="shared" si="0"/>
         <v>270.8714237291835</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="21">
+        <f t="shared" si="1"/>
+        <v>27628.885220376716</v>
+      </c>
+      <c r="D16" s="13"/>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -863,8 +891,11 @@
         <f t="shared" si="0"/>
         <v>260.37429774472423</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="21">
+        <f t="shared" si="1"/>
+        <v>28120.424156430217</v>
+      </c>
+      <c r="D17" s="13"/>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -875,8 +906,11 @@
         <f t="shared" si="0"/>
         <v>251.02643041183819</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="C18" s="21">
+        <f t="shared" si="1"/>
+        <v>28617.013066949556</v>
+      </c>
+      <c r="D18" s="13"/>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -887,8 +921,11 @@
         <f t="shared" si="0"/>
         <v>242.65518871071387</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="C19" s="21">
+        <f t="shared" si="1"/>
+        <v>29118.622645285664</v>
+      </c>
+      <c r="D19" s="13"/>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -899,8 +936,11 @@
         <f t="shared" si="0"/>
         <v>191.13041686607028</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="C20" s="21">
+        <f t="shared" si="1"/>
+        <v>34403.475035892647</v>
+      </c>
+      <c r="D20" s="13"/>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -911,8 +951,11 @@
         <f t="shared" si="0"/>
         <v>167.28801379869256</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="C21" s="21">
+        <f t="shared" si="1"/>
+        <v>40149.123311686213</v>
+      </c>
+      <c r="D21" s="13"/>
       <c r="E21" s="6"/>
     </row>
   </sheetData>
